--- a/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9.xlsx
+++ b/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="208">
   <si>
     <t>No</t>
   </si>
@@ -670,10 +670,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>2016.12.30</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>BS蘑菇月付资质列表</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -687,10 +683,6 @@
   </si>
   <si>
     <t>王云飞</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.12.30</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
@@ -997,6 +989,21 @@
   <si>
     <t>Partner PC</t>
     <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+  </si>
+  <si>
+    <t>谷黎娜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王健</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王健</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2154,7 +2161,7 @@
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2283,12 +2290,18 @@
       <c r="L2" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
+      <c r="M2" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" s="71" t="s">
+        <v>205</v>
+      </c>
       <c r="O2" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="72"/>
+      <c r="P2" s="72">
+        <v>42725</v>
+      </c>
       <c r="Q2" s="73" t="s">
         <v>88</v>
       </c>
@@ -2333,12 +2346,18 @@
       <c r="L3" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="M3" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>206</v>
+      </c>
       <c r="O3" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="72"/>
+      <c r="P3" s="72">
+        <v>42725</v>
+      </c>
       <c r="Q3" s="73" t="s">
         <v>88</v>
       </c>
@@ -2383,12 +2402,18 @@
       <c r="L4" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
+      <c r="M4" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="N4" s="81" t="s">
+        <v>207</v>
+      </c>
       <c r="O4" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="72"/>
+      <c r="P4" s="72">
+        <v>42725</v>
+      </c>
       <c r="Q4" s="73" t="s">
         <v>88</v>
       </c>
@@ -2975,7 +3000,7 @@
         <v>83</v>
       </c>
       <c r="F15" s="81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G15" s="81" t="s">
         <v>85</v>
@@ -3002,8 +3027,8 @@
       <c r="O15" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="82" t="s">
-        <v>128</v>
+      <c r="P15" s="82">
+        <v>42723</v>
       </c>
       <c r="Q15" s="83" t="s">
         <v>88</v>
@@ -3025,41 +3050,41 @@
         <v>80</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F16" s="81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G16" s="81" t="s">
         <v>85</v>
       </c>
       <c r="H16" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I16" s="81" t="s">
         <v>85</v>
       </c>
       <c r="J16" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K16" s="81"/>
       <c r="L16" s="83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M16" s="81" t="s">
         <v>126</v>
       </c>
       <c r="N16" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O16" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P16" s="82" t="s">
-        <v>133</v>
+      <c r="P16" s="82">
+        <v>42723</v>
       </c>
       <c r="Q16" s="83" t="s">
         <v>88</v>
@@ -3081,41 +3106,41 @@
         <v>80</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E17" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F17" s="81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G17" s="81" t="s">
         <v>85</v>
       </c>
       <c r="H17" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I17" s="81" t="s">
         <v>85</v>
       </c>
       <c r="J17" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K17" s="81"/>
       <c r="L17" s="83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M17" s="81" t="s">
         <v>126</v>
       </c>
       <c r="N17" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O17" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="82" t="s">
-        <v>128</v>
+      <c r="P17" s="82">
+        <v>42723</v>
       </c>
       <c r="Q17" s="83" t="s">
         <v>88</v>
@@ -3137,41 +3162,41 @@
         <v>80</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F18" s="81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G18" s="81" t="s">
         <v>85</v>
       </c>
       <c r="H18" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I18" s="81" t="s">
         <v>85</v>
       </c>
       <c r="J18" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K18" s="81"/>
       <c r="L18" s="83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M18" s="81" t="s">
         <v>126</v>
       </c>
       <c r="N18" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O18" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P18" s="82" t="s">
-        <v>133</v>
+      <c r="P18" s="82">
+        <v>42723</v>
       </c>
       <c r="Q18" s="83" t="s">
         <v>88</v>
@@ -3193,41 +3218,41 @@
         <v>80</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E19" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F19" s="81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G19" s="81" t="s">
         <v>85</v>
       </c>
       <c r="H19" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I19" s="81" t="s">
         <v>85</v>
       </c>
       <c r="J19" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K19" s="81"/>
       <c r="L19" s="83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M19" s="81" t="s">
         <v>126</v>
       </c>
       <c r="N19" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O19" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P19" s="82" t="s">
-        <v>133</v>
+      <c r="P19" s="82">
+        <v>42723</v>
       </c>
       <c r="Q19" s="83" t="s">
         <v>88</v>
@@ -3249,41 +3274,41 @@
         <v>80</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E20" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G20" s="81" t="s">
         <v>85</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I20" s="81" t="s">
         <v>85</v>
       </c>
       <c r="J20" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K20" s="81"/>
       <c r="L20" s="83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M20" s="81" t="s">
         <v>126</v>
       </c>
       <c r="N20" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O20" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="82" t="s">
-        <v>128</v>
+      <c r="P20" s="82">
+        <v>42723</v>
       </c>
       <c r="Q20" s="83" t="s">
         <v>88</v>
@@ -3305,41 +3330,41 @@
         <v>80</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E21" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G21" s="81" t="s">
         <v>85</v>
       </c>
       <c r="H21" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I21" s="81" t="s">
         <v>85</v>
       </c>
       <c r="J21" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K21" s="81"/>
       <c r="L21" s="83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M21" s="81" t="s">
         <v>126</v>
       </c>
       <c r="N21" s="81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O21" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P21" s="82" t="s">
-        <v>133</v>
+      <c r="P21" s="82">
+        <v>42723</v>
       </c>
       <c r="Q21" s="83" t="s">
         <v>88</v>
@@ -3361,41 +3386,41 @@
         <v>80</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E22" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F22" s="81" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G22" s="81" t="s">
         <v>85</v>
       </c>
       <c r="H22" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I22" s="81" t="s">
         <v>85</v>
       </c>
       <c r="J22" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K22" s="81"/>
       <c r="L22" s="83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M22" s="81" t="s">
         <v>126</v>
       </c>
       <c r="N22" s="81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O22" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P22" s="82" t="s">
-        <v>133</v>
+      <c r="P22" s="82">
+        <v>42723</v>
       </c>
       <c r="Q22" s="83" t="s">
         <v>88</v>
@@ -3417,41 +3442,41 @@
         <v>80</v>
       </c>
       <c r="D23" s="80" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E23" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F23" s="81" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G23" s="81" t="s">
         <v>85</v>
       </c>
       <c r="H23" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I23" s="81" t="s">
         <v>85</v>
       </c>
       <c r="J23" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K23" s="81"/>
       <c r="L23" s="83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M23" s="81" t="s">
         <v>126</v>
       </c>
       <c r="N23" s="81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O23" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P23" s="82" t="s">
-        <v>133</v>
+      <c r="P23" s="82">
+        <v>42723</v>
       </c>
       <c r="Q23" s="83" t="s">
         <v>88</v>
@@ -3473,41 +3498,41 @@
         <v>80</v>
       </c>
       <c r="D24" s="80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F24" s="81" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G24" s="81" t="s">
         <v>85</v>
       </c>
       <c r="H24" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I24" s="81" t="s">
         <v>85</v>
       </c>
       <c r="J24" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K24" s="81"/>
       <c r="L24" s="83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M24" s="81" t="s">
         <v>126</v>
       </c>
       <c r="N24" s="81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O24" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P24" s="82" t="s">
-        <v>133</v>
+      <c r="P24" s="82">
+        <v>42723</v>
       </c>
       <c r="Q24" s="83" t="s">
         <v>88</v>
@@ -3529,41 +3554,41 @@
         <v>80</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E25" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F25" s="81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G25" s="81" t="s">
         <v>85</v>
       </c>
       <c r="H25" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I25" s="81" t="s">
         <v>85</v>
       </c>
       <c r="J25" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K25" s="81"/>
       <c r="L25" s="83" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M25" s="81" t="s">
         <v>126</v>
       </c>
       <c r="N25" s="81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O25" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P25" s="82" t="s">
-        <v>133</v>
+      <c r="P25" s="82">
+        <v>42723</v>
       </c>
       <c r="Q25" s="83" t="s">
         <v>88</v>
@@ -3585,41 +3610,41 @@
         <v>80</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E26" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F26" s="81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G26" s="81" t="s">
         <v>85</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I26" s="81" t="s">
         <v>85</v>
       </c>
       <c r="J26" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K26" s="81"/>
       <c r="L26" s="83" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M26" s="81" t="s">
         <v>126</v>
       </c>
       <c r="N26" s="81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O26" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P26" s="82" t="s">
-        <v>133</v>
+      <c r="P26" s="82">
+        <v>42723</v>
       </c>
       <c r="Q26" s="83" t="s">
         <v>88</v>
@@ -3641,41 +3666,41 @@
         <v>80</v>
       </c>
       <c r="D27" s="80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E27" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F27" s="81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G27" s="81" t="s">
         <v>85</v>
       </c>
       <c r="H27" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I27" s="81" t="s">
         <v>85</v>
       </c>
       <c r="J27" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K27" s="81"/>
       <c r="L27" s="83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M27" s="81" t="s">
         <v>126</v>
       </c>
       <c r="N27" s="81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O27" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P27" s="82" t="s">
-        <v>133</v>
+      <c r="P27" s="82">
+        <v>42723</v>
       </c>
       <c r="Q27" s="83" t="s">
         <v>88</v>
@@ -3697,41 +3722,41 @@
         <v>80</v>
       </c>
       <c r="D28" s="80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E28" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F28" s="81" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G28" s="81" t="s">
         <v>85</v>
       </c>
       <c r="H28" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I28" s="81" t="s">
         <v>85</v>
       </c>
       <c r="J28" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K28" s="81"/>
       <c r="L28" s="83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M28" s="81" t="s">
         <v>126</v>
       </c>
       <c r="N28" s="81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O28" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="P28" s="82" t="s">
-        <v>133</v>
+      <c r="P28" s="82">
+        <v>42723</v>
       </c>
       <c r="Q28" s="83" t="s">
         <v>88</v>
@@ -6908,7 +6933,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6998,97 +7023,97 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="86" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" s="87" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="G2" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="I2" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="J2" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="K2" s="89" t="s">
         <v>160</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="89" t="s">
-        <v>162</v>
       </c>
       <c r="L2" s="87"/>
       <c r="M2" s="87"/>
       <c r="N2" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="P2" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="O2" s="90" t="s">
+      <c r="Q2" s="92" t="s">
         <v>164</v>
-      </c>
-      <c r="P2" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q2" s="92" t="s">
-        <v>166</v>
       </c>
       <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="G3" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="I3" s="87" t="s">
+      <c r="K3" s="89" t="s">
         <v>160</v>
-      </c>
-      <c r="J3" s="87" t="s">
-        <v>170</v>
-      </c>
-      <c r="K3" s="89" t="s">
-        <v>162</v>
       </c>
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
       <c r="N3" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="O3" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="O3" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3" s="91" t="s">
-        <v>165</v>
-      </c>
       <c r="Q3" s="87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R3" s="87"/>
     </row>
@@ -7323,7 +7348,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -7458,37 +7483,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="E5" s="94" t="s">
         <v>174</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="94" t="s">
-        <v>176</v>
       </c>
       <c r="F5" s="94" t="s">
         <v>69</v>
       </c>
       <c r="G5" s="95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H5" s="94" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I5" s="94" t="s">
         <v>73</v>
       </c>
       <c r="J5" s="94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K5" s="94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L5" s="94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M5" s="96"/>
     </row>
@@ -7497,35 +7522,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="94" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="98" t="s">
+      <c r="H6" s="94" t="s">
         <v>182</v>
-      </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="H6" s="94" t="s">
-        <v>184</v>
       </c>
       <c r="I6" s="94" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K6" s="94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L6" s="94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M6" s="95"/>
     </row>
@@ -7710,7 +7737,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -7845,37 +7872,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="94" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="94" t="s">
         <v>69</v>
       </c>
       <c r="G5" s="95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H5" s="94" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I5" s="94" t="s">
         <v>73</v>
       </c>
       <c r="J5" s="94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K5" s="94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L5" s="94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M5" s="96"/>
     </row>
@@ -7884,35 +7911,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="94" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="98" t="s">
+      <c r="H6" s="94" t="s">
         <v>182</v>
-      </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="H6" s="94" t="s">
-        <v>184</v>
       </c>
       <c r="I6" s="94" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K6" s="94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L6" s="94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M6" s="95"/>
     </row>
@@ -8097,7 +8126,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -8234,37 +8263,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="94" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="E5" s="94" t="s">
         <v>189</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="94" t="s">
-        <v>191</v>
       </c>
       <c r="F5" s="94" t="s">
         <v>69</v>
       </c>
       <c r="G5" s="95" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H5" s="94" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I5" s="94" t="s">
         <v>73</v>
       </c>
       <c r="J5" s="94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K5" s="94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L5" s="94" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M5" s="96"/>
     </row>
@@ -8273,35 +8302,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="94" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="94"/>
+      <c r="F6" s="94" t="s">
+        <v>69</v>
+      </c>
       <c r="G6" s="95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H6" s="94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I6" s="94" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K6" s="94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L6" s="94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M6" s="95"/>
     </row>
@@ -8460,7 +8491,7 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
